--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1006663882269175</v>
+        <v>0.08308931005344787</v>
       </c>
       <c r="H2" t="n">
-        <v>20.02993092441572</v>
+        <v>-0.9281616045310446</v>
       </c>
       <c r="I2" t="n">
-        <v>-38.33872246633346</v>
+        <v>-7.003535264171685</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1088495069077123</v>
+        <v>0.09721960756864051</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.451091065528339</v>
+        <v>-16.44621575736848</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01454505641650356</v>
+        <v>0.0004402103815455225</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.70636267343655</v>
+        <v>102.8538244800304</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01193414846522749</v>
+        <v>-0.03320425156192901</v>
       </c>
       <c r="H5" t="n">
-        <v>-83.39057701004297</v>
+        <v>53.78778294371526</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04810431691151296</v>
+        <v>0.0359111949920837</v>
       </c>
       <c r="H6" t="n">
-        <v>35.33103638799645</v>
+        <v>1.028338998136354</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04957394342198294</v>
+        <v>0.04482208599052571</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2655987163932</v>
+        <v>120.8517804806799</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.132622697250849</v>
+        <v>-0.1377560757929763</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.00660937494586</v>
+        <v>2.36844136495725</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1581925230471947</v>
+        <v>-0.1290507309984819</v>
       </c>
       <c r="H9" t="n">
-        <v>15.56430576943248</v>
+        <v>5.724633189976716</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08418473488525642</v>
+        <v>-0.07074049593626225</v>
       </c>
       <c r="H10" t="n">
-        <v>-22.0707425688615</v>
+        <v>34.51598646551233</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09317239403050304</v>
+        <v>-0.07748507297376546</v>
       </c>
       <c r="H11" t="n">
-        <v>40.02282467962925</v>
+        <v>-16.447354403514</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.293370873404883</v>
+        <v>-0.334566248127576</v>
       </c>
       <c r="H12" t="n">
-        <v>-29.34164951361966</v>
+        <v>19.41974693416145</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4213197318068663</v>
+        <v>-0.3830627980425494</v>
       </c>
       <c r="H13" t="n">
-        <v>-6.14383912387644</v>
+        <v>14.66622404663361</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03037939241599816</v>
+        <v>-0.05920624720701838</v>
       </c>
       <c r="H14" t="n">
-        <v>-40.12225158349919</v>
+        <v>-16.69544691354945</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05868124104185791</v>
+        <v>0.07339804979268105</v>
       </c>
       <c r="H15" t="n">
-        <v>-170.9641081124709</v>
+        <v>188.7613664649147</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1184983753046452</v>
+        <v>0.110920695791647</v>
       </c>
       <c r="H16" t="n">
-        <v>-18.84933860842235</v>
+        <v>-24.03872371781555</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.187276434725548</v>
+        <v>0.1817090918880243</v>
       </c>
       <c r="H17" t="n">
-        <v>52.72726006516791</v>
+        <v>48.18699306006118</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1444858909575375</v>
+        <v>0.1224566233151485</v>
       </c>
       <c r="H18" t="n">
-        <v>4.354205600016127</v>
+        <v>-11.5563217846075</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0978960728521598</v>
+        <v>0.1094309667565323</v>
       </c>
       <c r="H19" t="n">
-        <v>2.60917406638363</v>
+        <v>14.69940304072101</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03753479810293035</v>
+        <v>0.02966964178956582</v>
       </c>
       <c r="H20" t="n">
-        <v>46.42553542247281</v>
+        <v>15.74308120471764</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07242248116066134</v>
+        <v>0.04921715202759135</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.651372619799183</v>
+        <v>-34.52302426781712</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07411466217259353</v>
+        <v>0.1051369062798152</v>
       </c>
       <c r="H24" t="n">
-        <v>-26.20744746432782</v>
+        <v>4.679970908107483</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1696218099245593</v>
+        <v>0.1715619139815756</v>
       </c>
       <c r="H25" t="n">
-        <v>11.92721169114899</v>
+        <v>13.20741520736604</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08964463439122666</v>
+        <v>0.08305732824973198</v>
       </c>
       <c r="H26" t="n">
-        <v>13.29536968219323</v>
+        <v>4.970149889858825</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06792249637535988</v>
+        <v>0.08376346503756751</v>
       </c>
       <c r="H27" t="n">
-        <v>-31.97725243182297</v>
+        <v>-16.11290306236057</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2278162625546136</v>
+        <v>-0.233730528774444</v>
       </c>
       <c r="H28" t="n">
-        <v>6.896177839993968</v>
+        <v>-9.671275835803209</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2155834434228696</v>
+        <v>-0.1971505117558983</v>
       </c>
       <c r="H29" t="n">
-        <v>5.005569123655479</v>
+        <v>3.972673590981687</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05272349169606273</v>
+        <v>0.0595841106792093</v>
       </c>
       <c r="H30" t="n">
-        <v>19.4686817029996</v>
+        <v>35.01448641388718</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02393536751111986</v>
+        <v>0.02919475751384818</v>
       </c>
       <c r="H31" t="n">
-        <v>-9.105434841791279</v>
+        <v>10.86710023933204</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1215314132242846</v>
+        <v>0.1019404045227539</v>
       </c>
       <c r="H32" t="n">
-        <v>27.98100474196126</v>
+        <v>7.350314198576736</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1322141649565844</v>
+        <v>0.1220068671131412</v>
       </c>
       <c r="H33" t="n">
-        <v>27.17194124683868</v>
+        <v>17.35391696735549</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05053610911586332</v>
+        <v>0.03202622149736225</v>
       </c>
       <c r="H34" t="n">
-        <v>8.849067654917313</v>
+        <v>-31.01913836489867</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.007594605357125859</v>
+        <v>0.01875051956423416</v>
       </c>
       <c r="H35" t="n">
-        <v>-200.2386028722014</v>
+        <v>147.4817052189804</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02552229117295405</v>
+        <v>0.03583629231362796</v>
       </c>
       <c r="H36" t="n">
-        <v>-55.79502830101353</v>
+        <v>-37.93103147419442</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07797331435594218</v>
+        <v>0.0796809695944509</v>
       </c>
       <c r="H37" t="n">
-        <v>10.87384133293193</v>
+        <v>13.30203484413076</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01961178260759253</v>
+        <v>0.01947192313576913</v>
       </c>
       <c r="H38" t="n">
-        <v>-62.5632256623624</v>
+        <v>-62.83020228505895</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04054941337803891</v>
+        <v>0.04145177265878834</v>
       </c>
       <c r="H39" t="n">
-        <v>95.53826213758995</v>
+        <v>99.88963866519786</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.02668366977876445</v>
+        <v>0.001528791498733965</v>
       </c>
       <c r="H40" t="n">
-        <v>214.2586587036309</v>
+        <v>118.0048685137002</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03976566771676057</v>
+        <v>0.04397859405781077</v>
       </c>
       <c r="H41" t="n">
-        <v>12.4726550356358</v>
+        <v>24.3884366194508</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1417037447097018</v>
+        <v>0.1393982780589933</v>
       </c>
       <c r="H42" t="n">
-        <v>5.997345556589402</v>
+        <v>4.272808595728058</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1332923099599416</v>
+        <v>0.155103938355132</v>
       </c>
       <c r="H43" t="n">
-        <v>-10.5278630893547</v>
+        <v>4.113139100532242</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.01280079403787955</v>
+        <v>-0.001080474771814749</v>
       </c>
       <c r="H44" t="n">
-        <v>50.39443347110698</v>
+        <v>87.30567879570224</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01575214715668236</v>
+        <v>0.01716171329284391</v>
       </c>
       <c r="H45" t="n">
-        <v>-243.4639412317314</v>
+        <v>256.3016776564278</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0005890248491784572</v>
+        <v>-4.895700407074686e-05</v>
       </c>
       <c r="H46" t="n">
-        <v>-82.11306900944099</v>
+        <v>98.5133215440073</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01915475551027062</v>
+        <v>-0.007454725501208303</v>
       </c>
       <c r="H47" t="n">
-        <v>106.4427928844027</v>
+        <v>19.65575588626879</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06793262089196281</v>
+        <v>0.06560275335127853</v>
       </c>
       <c r="H48" t="n">
-        <v>35.12983276919391</v>
+        <v>30.49531982072783</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06813730013979931</v>
+        <v>0.07225207098022501</v>
       </c>
       <c r="H49" t="n">
-        <v>3.137097243680589</v>
+        <v>9.365484917300222</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1558878492707324</v>
+        <v>0.1491166654601824</v>
       </c>
       <c r="H50" t="n">
-        <v>-3.329969175204598</v>
+        <v>-7.528952936597208</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1573267911426965</v>
+        <v>0.1543562298775933</v>
       </c>
       <c r="H51" t="n">
-        <v>-8.057839227847305</v>
+        <v>-9.793842482194023</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1588711166105074</v>
+        <v>-0.1509688960628118</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.9723089621849897</v>
+        <v>5.897928367431353</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1313942657383795</v>
+        <v>-0.1483788605184203</v>
       </c>
       <c r="H53" t="n">
-        <v>4.236076751861311</v>
+        <v>-17.71008579740576</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09128977412737938</v>
+        <v>0.07250486921533379</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.59556007580542</v>
+        <v>-22.63869370689503</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1045214707103489</v>
+        <v>0.1247223725649556</v>
       </c>
       <c r="H55" t="n">
-        <v>-7.569171752884289</v>
+        <v>10.29496732849508</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.003821646258753155</v>
+        <v>-0.02662127725650913</v>
       </c>
       <c r="H56" t="n">
-        <v>-47.6542135790706</v>
+        <v>-264.6364941103203</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.02012184789147809</v>
+        <v>-0.01757826866368061</v>
       </c>
       <c r="H57" t="n">
-        <v>-12.00636889777839</v>
+        <v>23.12954075839442</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0517868471358122</v>
+        <v>0.05956295177973664</v>
       </c>
       <c r="H58" t="n">
-        <v>-8.159763896180328</v>
+        <v>5.630596513155464</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06529688705114811</v>
+        <v>0.07195277985126823</v>
       </c>
       <c r="H59" t="n">
-        <v>-9.082491844567764</v>
+        <v>0.1849819243209412</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06420974242855361</v>
+        <v>0.05707781072202085</v>
       </c>
       <c r="H60" t="n">
-        <v>-8.237652343633941</v>
+        <v>-18.42991868770968</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.08659582728408616</v>
+        <v>0.07656541886714123</v>
       </c>
       <c r="H61" t="n">
-        <v>82.20425875224974</v>
+        <v>61.09951054543129</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06083048072802939</v>
+        <v>0.0617214268314288</v>
       </c>
       <c r="H62" t="n">
-        <v>-16.62526361582292</v>
+        <v>-15.40412586359064</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.09124272666496094</v>
+        <v>0.0836561780572119</v>
       </c>
       <c r="H63" t="n">
-        <v>39.52873041935339</v>
+        <v>27.92735095388814</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.05196702917285204</v>
+        <v>-0.03516173844187129</v>
       </c>
       <c r="H64" t="n">
-        <v>25.47722396532631</v>
+        <v>15.10006633618057</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0176291888079048</v>
+        <v>0.01207258244740115</v>
       </c>
       <c r="H65" t="n">
-        <v>-135.7418159205747</v>
+        <v>124.4762265707594</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0399203431092487</v>
+        <v>0.03227019044896895</v>
       </c>
       <c r="H66" t="n">
-        <v>110.8397325462264</v>
+        <v>70.43536687188687</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04185341011314967</v>
+        <v>0.04354543449811828</v>
       </c>
       <c r="H67" t="n">
-        <v>60.05198013509011</v>
+        <v>66.52246491802536</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01964275312616718</v>
+        <v>-0.01379107852146539</v>
       </c>
       <c r="H68" t="n">
-        <v>-3546.378939852186</v>
+        <v>-2519.685380605319</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001329125511249451</v>
+        <v>-0.002034783304107808</v>
       </c>
       <c r="H69" t="n">
-        <v>-110.2934784048198</v>
+        <v>84.24151983988915</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05131915201323299</v>
+        <v>-0.04569912583616392</v>
       </c>
       <c r="H70" t="n">
-        <v>86.9681749366395</v>
+        <v>-66.49305022780185</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.05771244082022583</v>
+        <v>-0.05436816255833979</v>
       </c>
       <c r="H71" t="n">
-        <v>4.756574750670281</v>
+        <v>1.313782537104119</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1363872239099648</v>
+        <v>-0.1438912651322277</v>
       </c>
       <c r="H72" t="n">
-        <v>-8.054060764610199</v>
+        <v>2.995184291711821</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1261255629415453</v>
+        <v>-0.1301897856422098</v>
       </c>
       <c r="H73" t="n">
-        <v>-12.89059617499425</v>
+        <v>10.08361551056686</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1295753823749504</v>
+        <v>0.1154120390248443</v>
       </c>
       <c r="H74" t="n">
-        <v>2.795911008746164</v>
+        <v>-8.44028027943239</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1483130021135209</v>
+        <v>0.1482974668979755</v>
       </c>
       <c r="H75" t="n">
-        <v>9.721707981616854</v>
+        <v>9.710215055445763</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.06068158500008113</v>
+        <v>-0.04732524988124832</v>
       </c>
       <c r="H76" t="n">
-        <v>76.20559219687415</v>
+        <v>-37.42181719840143</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.03747358582460086</v>
+        <v>-0.04623846173601148</v>
       </c>
       <c r="H77" t="n">
-        <v>-18.86552609200735</v>
+        <v>-0.1114033982655048</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09243805366819538</v>
+        <v>0.09126079131787335</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2891516153249962</v>
+        <v>-0.9880998807553758</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09944829556240205</v>
+        <v>0.08140226813580359</v>
       </c>
       <c r="H79" t="n">
-        <v>3.050498413229494</v>
+        <v>-15.6491898033763</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.17199120916369</v>
+        <v>-0.2023979000045702</v>
       </c>
       <c r="H80" t="n">
-        <v>5.897532292740337</v>
+        <v>-24.61938174594641</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.17199120916369</v>
+        <v>-0.1846293498475134</v>
       </c>
       <c r="H81" t="n">
-        <v>-20.53941583209865</v>
+        <v>14.70054740146299</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1646192689749741</v>
+        <v>0.1582784798529606</v>
       </c>
       <c r="H82" t="n">
-        <v>18.64770000244052</v>
+        <v>14.07763933936124</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1963759967136812</v>
+        <v>0.1679382879561334</v>
       </c>
       <c r="H83" t="n">
-        <v>19.29077868219645</v>
+        <v>2.015976881589953</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04961789110650389</v>
+        <v>0.05923203964613118</v>
       </c>
       <c r="H84" t="n">
-        <v>254.5394311910906</v>
+        <v>323.2363201279787</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,10 +3230,10 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05145844148789707</v>
+        <v>0.07409200862656834</v>
       </c>
       <c r="H85" t="n">
-        <v>127.2981312394233</v>
+        <v>227.2733221925343</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08308931005344787</v>
+        <v>0.08115769241758861</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9281616045310446</v>
+        <v>-3.231332856507831</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.003535264171685</v>
+        <v>-16.72854336276172</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09721960756864051</v>
+        <v>0.117034059137713</v>
       </c>
       <c r="H3" t="n">
-        <v>-16.44621575736848</v>
+        <v>0.5829870206766905</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004402103815455225</v>
+        <v>-0.02036349073736977</v>
       </c>
       <c r="H4" t="n">
-        <v>102.8538244800304</v>
+        <v>-32.01376160450518</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03320425156192901</v>
+        <v>-0.07276019025014524</v>
       </c>
       <c r="H5" t="n">
-        <v>53.78778294371526</v>
+        <v>-1.264432918329105</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0359111949920837</v>
+        <v>0.05313627488391683</v>
       </c>
       <c r="H6" t="n">
-        <v>1.028338998136354</v>
+        <v>49.48735605300506</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04482208599052571</v>
+        <v>0.02226126798619579</v>
       </c>
       <c r="H7" t="n">
-        <v>120.8517804806799</v>
+        <v>9.687904118253551</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1377560757929763</v>
+        <v>-0.1548435155927191</v>
       </c>
       <c r="H8" t="n">
-        <v>2.36844136495725</v>
+        <v>-9.741902016473572</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1290507309984819</v>
+        <v>-0.1355902049952745</v>
       </c>
       <c r="H9" t="n">
-        <v>5.724633189976716</v>
+        <v>0.9473544793316588</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07074049593626225</v>
+        <v>-0.06593626870677871</v>
       </c>
       <c r="H10" t="n">
-        <v>34.51598646551233</v>
+        <v>38.9632281303391</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07748507297376546</v>
+        <v>-0.06650545617957808</v>
       </c>
       <c r="H11" t="n">
-        <v>-16.447354403514</v>
+        <v>0.05320859499277958</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.334566248127576</v>
+        <v>-0.3161817590787152</v>
       </c>
       <c r="H12" t="n">
-        <v>19.41974693416145</v>
+        <v>23.84764959420039</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3830627980425494</v>
+        <v>-0.3663680869026293</v>
       </c>
       <c r="H13" t="n">
-        <v>14.66622404663361</v>
+        <v>18.385255879795</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05920624720701838</v>
+        <v>-0.04651163650635912</v>
       </c>
       <c r="H14" t="n">
-        <v>-16.69544691354945</v>
+        <v>8.325616555093289</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07339804979268105</v>
+        <v>0.03494418024063498</v>
       </c>
       <c r="H15" t="n">
-        <v>188.7613664649147</v>
+        <v>142.2585231748803</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.110920695791647</v>
+        <v>0.1003747225743274</v>
       </c>
       <c r="H16" t="n">
-        <v>-24.03872371781555</v>
+        <v>-31.26087085192736</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1817090918880243</v>
+        <v>0.1838908558506729</v>
       </c>
       <c r="H17" t="n">
-        <v>48.18699306006118</v>
+        <v>49.96626033740213</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1224566233151485</v>
+        <v>0.1296040433581075</v>
       </c>
       <c r="H18" t="n">
-        <v>-11.5563217846075</v>
+        <v>-6.394133727838571</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1094309667565323</v>
+        <v>0.1287065971766345</v>
       </c>
       <c r="H19" t="n">
-        <v>14.69940304072101</v>
+        <v>34.90303797102566</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02966964178956582</v>
+        <v>0.03553634587461138</v>
       </c>
       <c r="H20" t="n">
-        <v>15.74308120471764</v>
+        <v>38.62945145938912</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04921715202759135</v>
+        <v>0.07429486866570362</v>
       </c>
       <c r="H21" t="n">
-        <v>-34.52302426781712</v>
+        <v>-1.160406235556423</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1051369062798152</v>
+        <v>0.07360093579903874</v>
       </c>
       <c r="H24" t="n">
-        <v>4.679970908107483</v>
+        <v>-26.71894113235834</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1715619139815756</v>
+        <v>0.151198295228831</v>
       </c>
       <c r="H25" t="n">
-        <v>13.20741520736604</v>
+        <v>-0.2297899960804376</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08305732824973198</v>
+        <v>0.07258594491379972</v>
       </c>
       <c r="H26" t="n">
-        <v>4.970149889858825</v>
+        <v>-8.263874144986374</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08376346503756751</v>
+        <v>0.08625796586418241</v>
       </c>
       <c r="H27" t="n">
-        <v>-16.11290306236057</v>
+        <v>-13.61472044110182</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.233730528774444</v>
+        <v>-0.239281318743601</v>
       </c>
       <c r="H28" t="n">
-        <v>-9.671275835803209</v>
+        <v>-12.27582313651761</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1971505117558983</v>
+        <v>-0.2308367661083208</v>
       </c>
       <c r="H29" t="n">
-        <v>3.972673590981687</v>
+        <v>-12.43509990849802</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0595841106792093</v>
+        <v>0.06680726225209016</v>
       </c>
       <c r="H30" t="n">
-        <v>35.01448641388718</v>
+        <v>51.38177106050452</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02919475751384818</v>
+        <v>0.01369019412764048</v>
       </c>
       <c r="H31" t="n">
-        <v>10.86710023933204</v>
+        <v>-48.01148377666485</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1019404045227539</v>
+        <v>0.09331645183010881</v>
       </c>
       <c r="H32" t="n">
-        <v>7.350314198576736</v>
+        <v>-1.731305945303205</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1220068671131412</v>
+        <v>0.1379215833466158</v>
       </c>
       <c r="H33" t="n">
-        <v>17.35391696735549</v>
+        <v>32.66169702608172</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03202622149736225</v>
+        <v>0.04742064126246821</v>
       </c>
       <c r="H34" t="n">
-        <v>-31.01913836489867</v>
+        <v>2.138701995910228</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01875051956423416</v>
+        <v>0.001307587305217545</v>
       </c>
       <c r="H35" t="n">
-        <v>147.4817052189804</v>
+        <v>-82.74160164419173</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03583629231362796</v>
+        <v>0.04654054422263969</v>
       </c>
       <c r="H36" t="n">
-        <v>-37.93103147419442</v>
+        <v>-19.39111476020775</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0796809695944509</v>
+        <v>0.0721150862937399</v>
       </c>
       <c r="H37" t="n">
-        <v>13.30203484413076</v>
+        <v>2.543757457111079</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01947192313576913</v>
+        <v>0.02837899317752992</v>
       </c>
       <c r="H38" t="n">
-        <v>-62.83020228505895</v>
+        <v>-45.82756780583328</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04145177265878834</v>
+        <v>0.0436362556584001</v>
       </c>
       <c r="H39" t="n">
-        <v>99.88963866519786</v>
+        <v>110.4237000443578</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>0.001528791498733965</v>
+        <v>-0.001190059719832217</v>
       </c>
       <c r="H40" t="n">
-        <v>118.0048685137002</v>
+        <v>85.98444013014584</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04397859405781077</v>
+        <v>0.01253345651831934</v>
       </c>
       <c r="H41" t="n">
-        <v>24.3884366194508</v>
+        <v>-64.55054793924863</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1393982780589933</v>
+        <v>0.1490893523402751</v>
       </c>
       <c r="H42" t="n">
-        <v>4.272808595728058</v>
+        <v>11.52193353248969</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.155103938355132</v>
+        <v>0.1496959682699459</v>
       </c>
       <c r="H43" t="n">
-        <v>4.113139100532242</v>
+        <v>0.4830524134918599</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.001080474771814749</v>
+        <v>-0.003716466556209904</v>
       </c>
       <c r="H44" t="n">
-        <v>87.30567879570224</v>
+        <v>56.33584287181515</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01716171329284391</v>
+        <v>0.01396031570668361</v>
       </c>
       <c r="H45" t="n">
-        <v>256.3016776564278</v>
+        <v>227.1446928598841</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.895700407074686e-05</v>
+        <v>-0.002975050573741749</v>
       </c>
       <c r="H46" t="n">
-        <v>98.5133215440073</v>
+        <v>9.65657156881816</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.007454725501208303</v>
+        <v>-0.005447829636818419</v>
       </c>
       <c r="H47" t="n">
-        <v>19.65575588626879</v>
+        <v>41.28532912987693</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06560275335127853</v>
+        <v>0.05920818471777103</v>
       </c>
       <c r="H48" t="n">
-        <v>30.49531982072783</v>
+        <v>17.775407373198</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07225207098022501</v>
+        <v>0.06499854662549265</v>
       </c>
       <c r="H49" t="n">
-        <v>9.365484917300222</v>
+        <v>-1.613926435931025</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1491166654601824</v>
+        <v>0.1349993904718859</v>
       </c>
       <c r="H50" t="n">
-        <v>-7.528952936597208</v>
+        <v>-16.28343517921649</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1543562298775933</v>
+        <v>0.1629246195032314</v>
       </c>
       <c r="H51" t="n">
-        <v>-9.793842482194023</v>
+        <v>-4.786454669877129</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1509688960628118</v>
+        <v>-0.1796242364698385</v>
       </c>
       <c r="H52" t="n">
-        <v>5.897928367431353</v>
+        <v>-11.96354486289387</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1483788605184203</v>
+        <v>-0.1521467331565825</v>
       </c>
       <c r="H53" t="n">
-        <v>-17.71008579740576</v>
+        <v>-20.69916800198779</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07250486921533379</v>
+        <v>0.09887457216937237</v>
       </c>
       <c r="H54" t="n">
-        <v>-22.63869370689503</v>
+        <v>5.497274113789521</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1247223725649556</v>
+        <v>0.1169786815214399</v>
       </c>
       <c r="H55" t="n">
-        <v>10.29496732849508</v>
+        <v>3.447036736077018</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.02662127725650913</v>
+        <v>-0.02364835448933883</v>
       </c>
       <c r="H56" t="n">
-        <v>-264.6364941103203</v>
+        <v>-223.9158282821367</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01757826866368061</v>
+        <v>-0.0159995907739671</v>
       </c>
       <c r="H57" t="n">
-        <v>23.12954075839442</v>
+        <v>30.03316117168243</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05956295177973664</v>
+        <v>0.03886477168281564</v>
       </c>
       <c r="H58" t="n">
-        <v>5.630596513155464</v>
+        <v>-31.07613216710932</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.07195277985126823</v>
+        <v>0.05891662056366272</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1849819243209412</v>
+        <v>-17.9661914603764</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05707781072202085</v>
+        <v>0.05481226376046851</v>
       </c>
       <c r="H60" t="n">
-        <v>-18.42991868770968</v>
+        <v>-21.66761907482947</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07656541886714123</v>
+        <v>0.07507534644010314</v>
       </c>
       <c r="H61" t="n">
-        <v>61.09951054543129</v>
+        <v>57.96428393497387</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0617214268314288</v>
+        <v>0.06589821670159328</v>
       </c>
       <c r="H62" t="n">
-        <v>-15.40412586359064</v>
+        <v>-9.679384743854531</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0836561780572119</v>
+        <v>0.07190248407717978</v>
       </c>
       <c r="H63" t="n">
-        <v>27.92735095388814</v>
+        <v>9.953556672252937</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.03516173844187129</v>
+        <v>-0.007012464004576278</v>
       </c>
       <c r="H64" t="n">
-        <v>15.10006633618057</v>
+        <v>83.0680235053599</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01207258244740115</v>
+        <v>-0.01909697371153306</v>
       </c>
       <c r="H65" t="n">
-        <v>124.4762265707594</v>
+        <v>61.28236378456542</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03227019044896895</v>
+        <v>0.04328298747059912</v>
       </c>
       <c r="H66" t="n">
-        <v>70.43536687188687</v>
+        <v>128.5995758385288</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04354543449811828</v>
+        <v>0.04010988899251833</v>
       </c>
       <c r="H67" t="n">
-        <v>66.52246491802536</v>
+        <v>53.38456624910132</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01379107852146539</v>
+        <v>-0.0154335170111205</v>
       </c>
       <c r="H68" t="n">
-        <v>-2519.685380605319</v>
+        <v>-2807.856055275632</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.002034783304107808</v>
+        <v>0.005293215960864637</v>
       </c>
       <c r="H69" t="n">
-        <v>84.24151983988915</v>
+        <v>140.9935733864504</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.04569912583616392</v>
+        <v>-0.03554354903007304</v>
       </c>
       <c r="H70" t="n">
-        <v>-66.49305022780185</v>
+        <v>-29.49380946922368</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.05436816255833979</v>
+        <v>-0.0597394838831968</v>
       </c>
       <c r="H71" t="n">
-        <v>1.313782537104119</v>
+        <v>-8.435956269299934</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1438912651322277</v>
+        <v>-0.155372895282417</v>
       </c>
       <c r="H72" t="n">
-        <v>2.995184291711821</v>
+        <v>-4.745198112503925</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1301897856422098</v>
+        <v>-0.1540640149776858</v>
       </c>
       <c r="H73" t="n">
-        <v>10.08361551056686</v>
+        <v>-6.405269341099813</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1154120390248443</v>
+        <v>0.149325749823856</v>
       </c>
       <c r="H74" t="n">
-        <v>-8.44028027943239</v>
+        <v>18.46445064533247</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1482974668979755</v>
+        <v>0.1403727918048235</v>
       </c>
       <c r="H75" t="n">
-        <v>9.710215055445763</v>
+        <v>3.847553832025317</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.04732524988124832</v>
+        <v>-0.01962171400663281</v>
       </c>
       <c r="H76" t="n">
-        <v>-37.42181719840143</v>
+        <v>43.02298240146806</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.04623846173601148</v>
+        <v>-0.02952884765206244</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.1114033982655048</v>
+        <v>36.06676631979698</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09126079131787335</v>
+        <v>0.1055010152631173</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.9880998807553758</v>
+        <v>14.46159774493277</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08140226813580359</v>
+        <v>0.105348857773641</v>
       </c>
       <c r="H79" t="n">
-        <v>-15.6491898033763</v>
+        <v>9.164789999100844</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2023979000045702</v>
+        <v>-0.202407080733238</v>
       </c>
       <c r="H80" t="n">
-        <v>-24.61938174594641</v>
+        <v>-24.62503445642676</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1846293498475134</v>
+        <v>-0.2163432841009074</v>
       </c>
       <c r="H81" t="n">
-        <v>14.70054740146299</v>
+        <v>0.04859074454615082</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1582784798529606</v>
+        <v>0.1665639310621269</v>
       </c>
       <c r="H82" t="n">
-        <v>14.07763933936124</v>
+        <v>20.04929585060155</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1679382879561334</v>
+        <v>0.1812627777629491</v>
       </c>
       <c r="H83" t="n">
-        <v>2.015976881589953</v>
+        <v>10.11008609655441</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05923203964613118</v>
+        <v>0.04560335558397417</v>
       </c>
       <c r="H84" t="n">
-        <v>323.2363201279787</v>
+        <v>225.8539891274808</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,14 +3230,14 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>0.07409200862656834</v>
+        <v>0.08368413833058931</v>
       </c>
       <c r="H85" t="n">
-        <v>227.2733221925343</v>
+        <v>269.6429139113765</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>